--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject36.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject36.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.74014943605812977</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>0</v>
+        <v>0.99737648466367634</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.75225387665590859</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.53670597087497796</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.92313574545218779</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.83856752585377681</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.50441494107958895</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.53128022067100988</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,30 +535,30 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.5263524834665726</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.88551897155931614</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.99624075975271387</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.97910195997093075</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.82324494239344426</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.57090259659331155</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.89847954889289261</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.97793723185475279</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.78498233326063604</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.51633463116083445</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.64133219365974903</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.70246641184477543</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.86094768457230919</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.89093090566269906</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="0">
-        <v>0</v>
+        <v>0.94223458718414432</v>
       </c>
       <c r="AU6" s="0">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.99341872582772472</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.83724727552016009</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.79975475212633307</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.84011114833361666</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.94929052201329844</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.88883777320996027</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.82695034705679504</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0</v>
+        <v>0.55027013494974486</v>
       </c>
       <c r="AK8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.96783627251711946</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.65041354005684293</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.89258142243755356</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>0</v>
+        <v>0.86132080176478032</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.69937343223206039</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.51135260649791392</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.91702987015885074</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.9329625516051685</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.90009525489602549</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.5971393018485569</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.93067633083854018</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.7587157828815948</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.61093629266642036</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.50863845501428417</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="0">
-        <v>0</v>
+        <v>0.81863693612550981</v>
       </c>
       <c r="AS12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>0</v>
+        <v>0.58966193722908433</v>
       </c>
       <c r="BL12" s="0">
         <v>0</v>
@@ -2630,25 +2630,25 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.56890817135206273</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.80260971888110677</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.63631788642867559</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0</v>
+        <v>0.71464953594163827</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="0">
-        <v>0</v>
+        <v>0.82748492132668761</v>
       </c>
       <c r="BA13" s="0">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0</v>
+        <v>0.51644019862050428</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.86687058118945537</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.80895346825588987</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.97905699855000705</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>0</v>
+        <v>0.9867010135224058</v>
       </c>
       <c r="BD14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>0</v>
+        <v>0.8158625354688458</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.74762509356371876</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.98040116093289698</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.99372039407045554</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.86700726123233651</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.91992784168388364</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.76595188947004478</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.55003935329902398</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3460,25 +3460,25 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>0.64447792073246069</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.54592785167596736</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.54416561873686242</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.63350814238406028</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.705872864617199</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.58742248631403648</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.85980673107091432</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.7704995141797758</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="0">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.92063201738701461</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.96914794883188948</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.67332640422138457</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0</v>
+        <v>0.56897275575260808</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.79398392157762188</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.733878266991013</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.64922860344662037</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0</v>
+        <v>0.64005732858494568</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>0</v>
+        <v>0.83380321146399128</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.75973351053034288</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.58425851059340783</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.9144470888240569</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="0">
         <v>0</v>
@@ -4449,12 +4449,12 @@
         <v>0</v>
       </c>
       <c r="BP21" s="0">
-        <v>0</v>
+        <v>0.88156477644096065</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>0.93583489186576929</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.87417628998175045</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.64410176689545695</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.71427731049525489</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.60929315838862064</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.56545481241198958</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.73743284134470755</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.71880810377201199</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="0">
-        <v>0</v>
+        <v>0.8702033283977193</v>
       </c>
       <c r="AL23" s="0">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.66498218831386757</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.96086550672178994</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.5469918817590278</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.93236297812153324</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>0</v>
+        <v>0.70817351408373819</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.60931809439180684</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.76809424819472016</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.74204224414023301</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>0</v>
+        <v>0.86154274821745602</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.94194762869137616</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.81898223032978623</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.75936103403553767</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0</v>
+        <v>0.92170114718556295</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.77482042884501467</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.57757163305496828</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.75448686762200912</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0</v>
+        <v>0.79786251769490812</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>0</v>
+        <v>0.75119602548630249</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.93452575603072696</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.59600798492247065</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.63811228686712673</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.86138855687618854</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.90534330698354637</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>0</v>
+        <v>0.67228100370292221</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.85386237916951147</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.97024706400028138</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.90727201843792349</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.59397485750493018</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.69479305766989374</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.98976673468713305</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.58699157759671616</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="AY31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.85418539133201488</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.87416320952470727</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.91528435633106864</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.57195749961904552</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="AW32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="0">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>1</v>
+        <v>0.69567383285948914</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.91710928211096743</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.81491194336436368</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.64195095347579501</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.55868711323392961</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.69075405643019439</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.9964422896014753</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.72690288460775543</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="0">
-        <v>0</v>
+        <v>0.66162696887393069</v>
       </c>
       <c r="BC34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.63766403223146007</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.97625833946909168</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.91359205665089316</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.76251957947865612</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="0">
-        <v>0</v>
+        <v>0.8012167648932973</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.7101294259989166</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.65956042540968973</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.54015268984339782</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>0</v>
+        <v>0.59327628018270351</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.66775981269518214</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.50022222688220885</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.88755253083480889</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.9422428733060394</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.70479868650344923</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.8884667776311137</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="0">
-        <v>0</v>
+        <v>0.60347639580491663</v>
       </c>
       <c r="AU38" s="0">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="BG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.89865420986110744</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.52194335857422947</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.68335271603650305</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.79287572136826268</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.69475343007811219</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.65074387770051878</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.69220732926571438</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.62252686225164433</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.57680671664612626</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>0</v>
+        <v>0.76052583828347209</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.80447689598960337</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.79421502247427922</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.75804059274254554</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.67039329409850579</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.74146004708419788</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.74150216665540603</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.59431495380701005</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.66491977194609886</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>0</v>
+        <v>0.70204903315049383</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.88795322596437587</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.92972324492604352</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.74154718462812785</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.85044747924654474</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>0</v>
+        <v>0.56804219125264965</v>
       </c>
       <c r="BE44" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>0.70907959123338959</v>
       </c>
       <c r="T45" s="0">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.60526799576277535</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.50985850584122971</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.84489326449532209</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="0">
-        <v>0</v>
+        <v>0.62319070603221061</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0</v>
+        <v>0.94120745110295023</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0</v>
+        <v>0.91907819988094541</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>0</v>
+        <v>0.51349221118580735</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.78637653766766791</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.89330025651321532</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.97019962169291141</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
@@ -9739,16 +9739,16 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.5364447086222176</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.95316189715857869</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.82213425504035265</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.64087387387803718</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.66491782777649078</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.825771065131916</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>0</v>
+        <v>0.86316096240594364</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.86976496778881551</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.5645822524357833</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.56938787000523572</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.5280494231622499</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.67068220069691353</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.74851613572663034</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.59151296358096128</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="0">
         <v>0</v>
@@ -10572,22 +10572,22 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.68743540388119895</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0</v>
+        <v>0.50541373725384053</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10611,10 +10611,10 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>1</v>
+        <v>0.98580328887000346</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
+        <v>0.66881770578230537</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.81079347382780043</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.95643153401352521</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10993,16 +10993,16 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.52371692256529356</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.92251887362410678</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="0">
-        <v>0</v>
+        <v>0.99819040904943868</v>
       </c>
       <c r="AA54" s="0">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="AF54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="0">
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>0</v>
+        <v>0.59484602063929781</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11196,22 +11196,22 @@
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>0</v>
+        <v>0.84424014695176419</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.71935965496538223</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.63317288750863643</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.83664690674543452</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>0</v>
+        <v>0.54344618226040886</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.8950355159673522</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.91597290275283005</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.58724716649881281</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0</v>
+        <v>0.67313761501525704</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11617,16 +11617,16 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.94764378852858899</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.76508513596687089</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0</v>
+        <v>0.5718950930487694</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>0</v>
+        <v>0.6153145335521516</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.66465986613789596</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.88512488787623944</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>0</v>
+        <v>0.82989624093425174</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>1</v>
+        <v>0.81131106235094341</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.744700267238396</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.9493881740094664</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.85047636527644399</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.52332057282714328</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.57438019755065395</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.68879096978397691</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.77010610038695437</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.8849259433337815</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.63533892607262565</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.81477944372211653</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.58626554407365328</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.71217791918336482</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="BD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62" s="0">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.50152209253047031</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.6951669892977439</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.96249159245417304</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.72227578570641426</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -12933,13 +12933,13 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>0</v>
+        <v>0.86525348616341824</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0</v>
+        <v>0.60461168432218315</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0</v>
+        <v>0.89652808142175533</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>1</v>
+        <v>0.8546937035303106</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.87337313634082503</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.53787039222772814</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.97073660248045823</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.93680640711625585</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.7845480829184629</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.70348675217264856</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.62369917096386507</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0</v>
+        <v>0.75495300125139542</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.69761824072673373</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.56958945038677067</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13701,30 +13701,30 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.59560094297445576</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.74407013836354841</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.66581534906071993</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.5027573140623538</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.6155026276174258</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.66944139417446324</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.90802041004423706</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.55788142743996483</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0</v>
+        <v>0.80338620125400584</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.83816465174518129</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.73551056951360372</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject36.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject36.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.74014943605812977</v>
+        <v>0.92313574545218779</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0.75225387665590859</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.53670597087497796</v>
+        <v>0.55788142743996483</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
         <v>0.83856752585377681</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50441494107958895</v>
+        <v>0.97910195997093075</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0.53128022067100988</v>
+        <v>0.93680640711625585</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.5263524834665726</v>
+        <v>0.83856752585377681</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0.97910195997093075</v>
       </c>
       <c r="C4" s="0">
-        <v>0.82324494239344426</v>
+        <v>0.88551897155931614</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.57090259659331155</v>
+        <v>0.78498233326063604</v>
       </c>
       <c r="F4" s="0">
         <v>0.89847954889289261</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.97793723185475279</v>
+        <v>0.99624075975271387</v>
       </c>
       <c r="D5" s="0">
         <v>0.78498233326063604</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.51633463116083445</v>
+        <v>0.86094768457230919</v>
       </c>
       <c r="G5" s="0">
-        <v>0.64133219365974903</v>
+        <v>0.99341872582772472</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.70246641184477543</v>
+        <v>0.89847954889289261</v>
       </c>
       <c r="E6" s="0">
         <v>0.86094768457230919</v>
@@ -1379,16 +1379,16 @@
         <v>0.99341872582772472</v>
       </c>
       <c r="F7" s="0">
-        <v>0.83724727552016009</v>
+        <v>0.89093090566269906</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.79975475212633307</v>
+        <v>0.94929052201329844</v>
       </c>
       <c r="I7" s="0">
-        <v>0.84011114833361666</v>
+        <v>0.96783627251711946</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.55027013494974486</v>
+        <v>0.8012167648932973</v>
       </c>
       <c r="AK8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0.96783627251711946</v>
       </c>
       <c r="H9" s="0">
-        <v>0.65041354005684293</v>
+        <v>0.88883777320996027</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.89258142243755356</v>
+        <v>0.9329625516051685</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.69937343223206039</v>
+        <v>0.82695034705679504</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.51135260649791392</v>
+        <v>0.90009525489602549</v>
       </c>
       <c r="L10" s="0">
         <v>0.91702987015885074</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.5971393018485569</v>
+        <v>0.61093629266642036</v>
       </c>
       <c r="M11" s="0">
         <v>0.93067633083854018</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.7587157828815948</v>
+        <v>0.91702987015885074</v>
       </c>
       <c r="K12" s="0">
         <v>0.61093629266642036</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.50863845501428417</v>
+        <v>0.86687058118945537</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>0.58966193722908433</v>
+        <v>0.86525348616341824</v>
       </c>
       <c r="BL12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.56890817135206273</v>
+        <v>0.93067633083854018</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.80260971888110677</v>
+        <v>0.80895346825588987</v>
       </c>
       <c r="O13" s="0">
-        <v>0.63631788642867559</v>
+        <v>0.74762509356371876</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0.51644019862050428</v>
+        <v>0.75495300125139542</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.97905699855000705</v>
+        <v>0.98040116093289698</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.91992784168388364</v>
+        <v>0.99372039407045554</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0.76595188947004478</v>
       </c>
       <c r="R16" s="0">
-        <v>0.55003935329902398</v>
+        <v>0.705872864617199</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3460,16 +3460,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0.64447792073246069</v>
+        <v>0.71464953594163827</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.54592785167596736</v>
+        <v>0.86700726123233651</v>
       </c>
       <c r="P17" s="0">
-        <v>0.54416561873686242</v>
+        <v>0.76595188947004478</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0.705872864617199</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.58742248631403648</v>
+        <v>0.63350814238406028</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.85980673107091432</v>
+        <v>0.92063201738701461</v>
       </c>
       <c r="T18" s="0">
-        <v>0.7704995141797758</v>
+        <v>0.79398392157762188</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0.96914794883188948</v>
       </c>
       <c r="U19" s="0">
-        <v>0.67332640422138457</v>
+        <v>0.75973351053034288</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="0">
-        <v>0.56897275575260808</v>
+        <v>0.70907959123338959</v>
       </c>
       <c r="AT19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.79398392157762188</v>
       </c>
       <c r="S20" s="0">
-        <v>0.733878266991013</v>
+        <v>0.96914794883188948</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.64922860344662037</v>
+        <v>0.87417628998175045</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.64005732858494568</v>
+        <v>0.75119602548630249</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.58425851059340783</v>
+        <v>0.64410176689545695</v>
       </c>
       <c r="W21" s="0">
         <v>0.9144470888240569</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.93583489186576929</v>
+        <v>0.99737648466367634</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.71427731049525489</v>
+        <v>0.73743284134470755</v>
       </c>
       <c r="X22" s="0">
-        <v>0.60929315838862064</v>
+        <v>0.66498218831386757</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.56545481241198958</v>
+        <v>0.9144470888240569</v>
       </c>
       <c r="V23" s="0">
         <v>0.73743284134470755</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.71880810377201199</v>
+        <v>0.96086550672178994</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.5469918817590278</v>
+        <v>0.60931809439180684</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.93236297812153324</v>
+        <v>0.94194762869137616</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>0.70817351408373819</v>
+        <v>0.86316096240594364</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.76809424819472016</v>
+        <v>0.81898223032978623</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.74204224414023301</v>
+        <v>0.77482042884501467</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.75936103403553767</v>
+        <v>0.93452575603072696</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="0">
-        <v>0.92170114718556295</v>
+        <v>0.99819040904943868</v>
       </c>
       <c r="BC26" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.57757163305496828</v>
+        <v>0.59600798492247065</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.75448686762200912</v>
+        <v>0.86138855687618854</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0.79786251769490812</v>
+        <v>0.94120745110295023</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.63811228686712673</v>
+        <v>0.85386237916951147</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.90534330698354637</v>
+        <v>0.97024706400028138</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>0.67228100370292221</v>
+        <v>0.91907819988094541</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.90727201843792349</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.59397485750493018</v>
+        <v>0.85418539133201488</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.69479305766989374</v>
+        <v>0.90727201843792349</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0.98976673468713305</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.58699157759671616</v>
+        <v>0.91710928211096743</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0.85418539133201488</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.87416320952470727</v>
+        <v>0.98976673468713305</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0.57195749961904552</v>
+        <v>0.79421502247427922</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0.69567383285948914</v>
+        <v>0.81131106235094341</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.55868711323392961</v>
+        <v>0.91528435633106864</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.69075405643019439</v>
+        <v>0.81491194336436368</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.63766403223146007</v>
+        <v>0.64195095347579501</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.97625833946909168</v>
+        <v>0.9964422896014753</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.7101294259989166</v>
+        <v>0.72690288460775543</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.65956042540968973</v>
+        <v>0.91359205665089316</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0">
-        <v>0.59327628018270351</v>
+        <v>0.8702033283977193</v>
       </c>
       <c r="X37" s="0">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.66775981269518214</v>
+        <v>0.76251957947865612</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.50022222688220885</v>
+        <v>0.54015268984339782</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.70479868650344923</v>
+        <v>0.88755253083480889</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.89865420986110744</v>
+        <v>0.9422428733060394</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.52194335857422947</v>
+        <v>0.8884667776311137</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.68335271603650305</v>
+        <v>0.69475343007811219</v>
       </c>
       <c r="AO39" s="0">
         <v>0.79287572136826268</v>
@@ -8285,7 +8285,7 @@
         <v>0.65074387770051878</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.69220732926571438</v>
+        <v>0.75804059274254554</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.62252686225164433</v>
+        <v>0.79287572136826268</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.57680671664612626</v>
+        <v>0.65074387770051878</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>0.76052583828347209</v>
+        <v>0.89652808142175533</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.67039329409850579</v>
+        <v>0.74150216665540603</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.74146004708419788</v>
+        <v>0.88795322596437587</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.59431495380701005</v>
+        <v>0.92972324492604352</v>
       </c>
       <c r="AS43" s="0">
         <v>0.66491977194609886</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>0.70204903315049383</v>
+        <v>0.81863693612550981</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>0.56804219125264965</v>
+        <v>0.67313761501525704</v>
       </c>
       <c r="BE44" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.60526799576277535</v>
+        <v>0.66491977194609886</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.50985850584122971</v>
+        <v>0.74154718462812785</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.84489326449532209</v>
+        <v>0.89330025651321532</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="0">
-        <v>0.62319070603221061</v>
+        <v>0.94223458718414432</v>
       </c>
       <c r="G46" s="0">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="0">
-        <v>0.51349221118580735</v>
+        <v>0.60347639580491663</v>
       </c>
       <c r="AM46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.78637653766766791</v>
+        <v>0.85044747924654474</v>
       </c>
       <c r="AS46" s="0">
         <v>0.89330025651321532</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.5364447086222176</v>
+        <v>0.97019962169291141</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.95316189715857869</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.82213425504035265</v>
+        <v>0.86976496778881551</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.64087387387803718</v>
+        <v>0.95316189715857869</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10157,13 +10157,13 @@
         <v>0.86976496778881551</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.5645822524357833</v>
+        <v>0.66491782777649078</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.56938787000523572</v>
+        <v>0.67068220069691353</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.5280494231622499</v>
+        <v>0.825771065131916</v>
       </c>
       <c r="AW50" s="0">
         <v>0.67068220069691353</v>
@@ -10375,7 +10375,7 @@
         <v>0.74851613572663034</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.59151296358096128</v>
+        <v>0.81079347382780043</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.68743540388119895</v>
+        <v>0.74851613572663034</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0.50541373725384053</v>
+        <v>0.84424014695176419</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="0">
-        <v>0.66881770578230537</v>
+        <v>0.82748492132668761</v>
       </c>
       <c r="N52" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.52371692256529356</v>
+        <v>0.63317288750863643</v>
       </c>
       <c r="BC53" s="0">
         <v>0.92251887362410678</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="0">
-        <v>0.59484602063929781</v>
+        <v>0.66162696887393069</v>
       </c>
       <c r="AI54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0.84424014695176419</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.71935965496538223</v>
+        <v>0.95643153401352521</v>
       </c>
       <c r="BA54" s="0">
         <v>0.63317288750863643</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.83664690674543452</v>
+        <v>0.91597290275283005</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>0.54344618226040886</v>
+        <v>0.9867010135224058</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.8950355159673522</v>
+        <v>0.92251887362410678</v>
       </c>
       <c r="BB55" s="0">
         <v>0.91597290275283005</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.58724716649881281</v>
+        <v>0.94764378852858899</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>0.5718950930487694</v>
+        <v>0.83380321146399128</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>0.6153145335521516</v>
+        <v>0.86154274821745602</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.66465986613789596</v>
+        <v>0.76508513596687089</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.88512488787623944</v>
+        <v>0.9493881740094664</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>0.82989624093425174</v>
+        <v>0.86132080176478032</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.744700267238396</v>
+        <v>0.85047636527644399</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.52332057282714328</v>
+        <v>0.68879096978397691</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.57438019755065395</v>
+        <v>0.63533892607262565</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.77010610038695437</v>
+        <v>0.81477944372211653</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.8849259433337815</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.58626554407365328</v>
+        <v>0.6951669892977439</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.71217791918336482</v>
+        <v>0.87337313634082503</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.50152209253047031</v>
+        <v>0.8849259433337815</v>
       </c>
       <c r="BI62" s="0">
         <v>0.6951669892977439</v>
@@ -12883,7 +12883,7 @@
         <v>0.96249159245417304</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.72227578570641426</v>
+        <v>0.7845480829184629</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0.60461168432218315</v>
+        <v>0.8158625354688458</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>0.8546937035303106</v>
+        <v>0.98580328887000346</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0.87337313634082503</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.53787039222772814</v>
+        <v>0.96249159245417304</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.7845480829184629</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.70348675217264856</v>
+        <v>0.97073660248045823</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.69761824072673373</v>
+        <v>0.74407013836354841</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0.56958945038677067</v>
+        <v>0.80447689598960337</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.59560094297445576</v>
+        <v>0.62369917096386507</v>
       </c>
       <c r="BM66" s="0">
         <v>0.74407013836354841</v>
@@ -13716,15 +13716,15 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.66581534906071993</v>
+        <v>0.66944139417446324</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.5027573140623538</v>
+        <v>0.83816465174518129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.6155026276174258</v>
+        <v>0.75225387665590859</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="0">
-        <v>0.80338620125400584</v>
+        <v>0.88156477644096065</v>
       </c>
       <c r="V68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.83816465174518129</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.73551056951360372</v>
+        <v>0.90802041004423706</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
